--- a/Technology/Tesla.xlsx
+++ b/Technology/Tesla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Growth Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB72D50-C06F-F340-BBCE-18604F2229FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED726C7-FCD0-CA4E-AF55-1010CC1415F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -859,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -947,7 +950,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -977,6 +979,12 @@
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2137,8 +2145,8 @@
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1254126</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>55033</xdr:rowOff>
     </xdr:to>
@@ -2468,10 +2476,10 @@
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W27" sqref="W27"/>
+      <selection pane="bottomRight" activeCell="AC108" sqref="AC108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2739,16 +2747,16 @@
       <c r="V4" s="17">
         <v>210100000000</v>
       </c>
-      <c r="W4" s="56" t="s">
+      <c r="W4" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="X4" s="57" t="s">
+      <c r="X4" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="Y4" s="57" t="s">
+      <c r="Y4" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="Z4" s="57" t="s">
+      <c r="Z4" s="56" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2837,19 +2845,19 @@
         <f t="shared" ref="V5" si="4">(V4/U4)-1</f>
         <v>0.27720364741641346</v>
       </c>
-      <c r="W5" s="58">
+      <c r="W5" s="57">
         <f>(Q5+P5+O5)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="X5" s="58">
+      <c r="X5" s="57">
         <f>(Q21+P21+O21)/3</f>
         <v>1.0471441765542473</v>
       </c>
-      <c r="Y5" s="58">
+      <c r="Y5" s="57">
         <f>(Q30+P30+O30)/3</f>
         <v>2.1577121717940262</v>
       </c>
-      <c r="Z5" s="58">
+      <c r="Z5" s="57">
         <f>(Q106+P106+O106)/3</f>
         <v>1.083547133260981</v>
       </c>
@@ -2959,16 +2967,16 @@
       <c r="Q7" s="10">
         <v>20853000000</v>
       </c>
-      <c r="W7" s="56" t="s">
+      <c r="W7" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="X7" s="57" t="s">
+      <c r="X7" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="Y7" s="57" t="s">
+      <c r="Y7" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="Z7" s="57" t="s">
+      <c r="Z7" s="56" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3024,19 +3032,19 @@
       <c r="Q8" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="W8" s="58">
+      <c r="W8" s="57">
         <f>Q8</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="X8" s="59">
+      <c r="X8" s="58">
         <f>Q22</f>
         <v>0.21640000000000001</v>
       </c>
-      <c r="Y8" s="59">
+      <c r="Y8" s="58">
         <f>Q31</f>
         <v>0.15409999999999999</v>
       </c>
-      <c r="Z8" s="59">
+      <c r="Z8" s="58">
         <f>Q107/Q4</f>
         <v>9.281628243843755E-2</v>
       </c>
@@ -3162,16 +3170,16 @@
         <f t="shared" si="5"/>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="W10" s="56" t="s">
+      <c r="W10" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="X10" s="57" t="s">
+      <c r="X10" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="Y10" s="57" t="s">
+      <c r="Y10" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="Z10" s="57" t="s">
+      <c r="Z10" s="56" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3227,19 +3235,19 @@
       <c r="Q11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W11" s="58">
+      <c r="W11" s="57">
         <f>Q10</f>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="X11" s="59">
+      <c r="X11" s="58">
         <f>Q14</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="Y11" s="59">
+      <c r="Y11" s="58">
         <f>Q81</f>
         <v>1.9150033144288134E-2</v>
       </c>
-      <c r="Z11" s="59">
+      <c r="Z11" s="58">
         <f>Q90</f>
         <v>8.7930568854189678E-2</v>
       </c>
@@ -3349,16 +3357,16 @@
       <c r="Q13" s="1">
         <v>3946000000</v>
       </c>
-      <c r="W13" s="56" t="s">
+      <c r="W13" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="X13" s="57" t="s">
+      <c r="X13" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="Y13" s="57" t="s">
+      <c r="Y13" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="Z13" s="57" t="s">
+      <c r="Z13" s="56" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3430,15 +3438,15 @@
         <f t="shared" ref="Q14" si="19">Q13/Q4</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="W14" s="58">
+      <c r="W14" s="57">
         <f>Q29/Q73</f>
         <v>0.28086972083035078</v>
       </c>
-      <c r="X14" s="59">
+      <c r="X14" s="58">
         <f>Q29/Q55</f>
         <v>0.1524933809419709</v>
       </c>
-      <c r="Y14" s="59">
+      <c r="Y14" s="58">
         <f>Q23/(Q73+Q57+Q62)</f>
         <v>0.28567244733594127</v>
       </c>
@@ -3552,16 +3560,16 @@
       <c r="Q16" s="1">
         <v>7197000000</v>
       </c>
-      <c r="W16" s="56" t="s">
+      <c r="W16" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="X16" s="57" t="s">
+      <c r="X16" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y16" s="57" t="s">
+      <c r="Y16" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="Z16" s="57" t="s">
+      <c r="Z16" s="56" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3621,15 +3629,15 @@
         <f>(Q36+P36+O36+N36+M36)/5</f>
         <v>6.5503438863175154E-2</v>
       </c>
-      <c r="X17" s="60">
+      <c r="X17" s="59">
         <f>Y101/Q4</f>
         <v>7.3653973631877436</v>
       </c>
-      <c r="Y17" s="60">
+      <c r="Y17" s="59">
         <f>Y101/Q29</f>
         <v>47.785919082510354</v>
       </c>
-      <c r="Z17" s="61">
+      <c r="Z17" s="60">
         <f>Y101/Q107</f>
         <v>79.35458272715249</v>
       </c>
@@ -3687,7 +3695,7 @@
         <v>191000000</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3739,8 +3747,11 @@
       <c r="Q19" s="1">
         <v>3747000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -3791,6 +3802,10 @@
       </c>
       <c r="Q20" s="10">
         <v>17626000000</v>
+      </c>
+      <c r="W20" s="61">
+        <f>Q41-Q57-Q62</f>
+        <v>19086000000</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7186,10 +7201,10 @@
       <c r="Q83" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X83" s="68" t="s">
+      <c r="X83" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="Y83" s="69"/>
+      <c r="Y83" s="70"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7243,10 +7258,10 @@
       <c r="Q84" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X84" s="66" t="s">
+      <c r="X84" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="Y84" s="67"/>
+      <c r="Y84" s="68"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7744,7 +7759,7 @@
         <v>5.6547260142206617E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
@@ -7796,10 +7811,10 @@
       <c r="Q93" s="1">
         <v>22000000</v>
       </c>
-      <c r="X93" s="66" t="s">
+      <c r="X93" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="Y93" s="67"/>
+      <c r="Y93" s="68"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -8038,7 +8053,7 @@
         <v>0.1317855</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>82</v>
       </c>
@@ -8090,10 +8105,10 @@
       <c r="Q98" s="20">
         <v>0</v>
       </c>
-      <c r="X98" s="66" t="s">
+      <c r="X98" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="Y98" s="67"/>
+      <c r="Y98" s="68"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8446,10 +8461,10 @@
       <c r="Q104" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X104" s="66" t="s">
+      <c r="X104" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="Y104" s="67"/>
+      <c r="Y104" s="68"/>
     </row>
     <row r="105" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -8582,10 +8597,10 @@
       <c r="U106" s="15"/>
       <c r="V106" s="15"/>
       <c r="W106" s="15"/>
-      <c r="X106" s="62" t="s">
+      <c r="X106" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="Y106" s="63"/>
+      <c r="Y106" s="64"/>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -8670,14 +8685,14 @@
         <v>0.21158031451051951</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R108" s="37"/>
       <c r="S108" s="37"/>
       <c r="T108" s="37"/>
       <c r="U108" s="37"/>
       <c r="V108" s="40">
         <f>V107*(1+Y108)/(Y109-Y108)</f>
-        <v>211937882385.71765</v>
+        <v>190163447772.83414</v>
       </c>
       <c r="W108" s="41" t="s">
         <v>145</v>
@@ -8686,7 +8701,7 @@
         <v>146</v>
       </c>
       <c r="Y108" s="43">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8708,7 +8723,7 @@
       </c>
       <c r="V109" s="40">
         <f>V108+V107</f>
-        <v>231677570203.82294</v>
+        <v>209903135590.93942</v>
       </c>
       <c r="W109" s="41" t="s">
         <v>135</v>
@@ -8722,10 +8737,10 @@
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R110" s="64" t="s">
+      <c r="R110" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="S110" s="65"/>
+      <c r="S110" s="66"/>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="R111" s="46" t="s">
@@ -8733,7 +8748,7 @@
       </c>
       <c r="S111" s="47">
         <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
-        <v>160965670043.4726</v>
+        <v>149220261084.08743</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8760,48 +8775,49 @@
       </c>
       <c r="S114" s="47">
         <f>S111+S112-S113</f>
-        <v>180051670043.4726</v>
+        <v>168306261084.08743</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="48" t="s">
+      <c r="R115" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="S115" s="49">
-        <v>3160000000</v>
+      <c r="S115" s="62">
+        <f>Q35*(1+(5*W17))</f>
+        <v>4496300737.147871</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="50" t="s">
+      <c r="R116" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="S116" s="51">
+      <c r="S116" s="50">
         <f>S114/S115</f>
-        <v>56.978376596035631</v>
+        <v>37.432162776293474</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
       <c r="R117" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="S117" s="52">
+      <c r="S117" s="51">
         <v>187.71</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="53" t="s">
+      <c r="R118" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="S118" s="54">
+      <c r="S118" s="53">
         <f>S116/S117-1</f>
-        <v>-0.69645529489086555</v>
+        <v>-0.80058514316608886</v>
       </c>
     </row>
     <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R119" s="53" t="s">
+      <c r="R119" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="S119" s="55" t="str">
+      <c r="S119" s="54" t="str">
         <f>IF(S116&gt;S117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
